--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.27</v>
+        <v>2.68</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.04</v>
+        <v>2.95</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:25</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.58</v>
+        <v>3.24</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.61</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:25</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.1</v>
+        <v>2.51</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:06</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Sekhukhune</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.96</v>
+        <v>3.04</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.51</v>
+        <v>2.46</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:06</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Cape Town Spurs</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>TS Galaxy</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
-        <v>2.58</v>
+        <v>1.76</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="L37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>30/08/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>3.23</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>30/08/2023 19:19</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>2.77</v>
-      </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.75</v>
+        <v>3.23</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.1</v>
+        <v>5.01</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.7</v>
+        <v>5.17</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-spurs/MoPk28ql/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.16</v>
+        <v>3.23</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.01</v>
+        <v>2.75</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.81</v>
+        <v>2.24</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.68</v>
+        <v>2.16</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.73</v>
+        <v>3.01</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.29</v>
+        <v>4</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-kaizer-chiefs/6LJK7ULQ/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.76</v>
+        <v>2.81</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.83</v>
+        <v>2.68</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.23</v>
+        <v>2.8</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.23</v>
+        <v>2.73</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.01</v>
+        <v>2.81</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>5.17</v>
+        <v>3.29</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-spurs/MoPk28ql/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-kaizer-chiefs/6LJK7ULQ/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,98 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45204.8125</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sekhukhune</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>05/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>05/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>05/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/sekhukhune-golden-arrows/Wt6O4MMq/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6529,6 +6529,98 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45207.64583333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sekhukhune</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:15</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:15</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:15</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/sekhukhune-polokwane-city/IyXM0GPt/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.93</v>
+        <v>2.55</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>14/08/2023 17:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.06</v>
+        <v>2.73</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>14/08/2023 17:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.63</v>
+        <v>3.01</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>14/08/2023 17:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>4.71</v>
+        <v>3.08</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-cape-town-city/OIs5fKoA/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-stellenbosch-fc/pSr1e0W3/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Cape Town City</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.55</v>
+        <v>1.93</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>14/08/2023 17:42</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.73</v>
+        <v>2.06</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>14/08/2023 17:42</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.01</v>
+        <v>4.63</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>14/08/2023 17:42</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.08</v>
+        <v>4.71</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-stellenbosch-fc/pSr1e0W3/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-cape-town-city/OIs5fKoA/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,98 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/sekhukhune-polokwane-city/IyXM0GPt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45223.8125</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:23</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>24/10/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:23</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>24/10/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:23</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>24/10/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-orlando-pirates/QsviNUxB/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6713,6 +6713,98 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45225.8125</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Supersport Utd</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Royal AM</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>26/10/2023 08:22</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>26/10/2023 11:43</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>26/10/2023 08:22</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>26/10/2023 19:04</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>26/10/2023 08:22</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>26/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-royal-am/MRrzNLrS/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.03</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.81</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.86</v>
+        <v>4.96</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.9</v>
+        <v>7.82</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-city/ro7WuLWG/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-kaizer-chiefs/GCKwva1T/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Cape Town City</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.77</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>3.03</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>2.81</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.96</v>
+        <v>2.86</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>7.82</v>
+        <v>2.9</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-kaizer-chiefs/GCKwva1T/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-city/ro7WuLWG/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.61</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.68</v>
+        <v>3.27</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.95</v>
+        <v>3.04</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:25</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.24</v>
+        <v>2.58</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:25</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.51</v>
+        <v>3.1</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:06</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.27</v>
+        <v>2.9</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.46</v>
+        <v>2.51</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:06</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Cape Town City</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.55</v>
+        <v>1.93</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>14/08/2023 17:42</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.73</v>
+        <v>2.06</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>14/08/2023 17:42</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.01</v>
+        <v>4.63</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>14/08/2023 17:42</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.08</v>
+        <v>4.71</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-stellenbosch-fc/pSr1e0W3/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-cape-town-city/OIs5fKoA/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.93</v>
+        <v>2.55</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>14/08/2023 17:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.06</v>
+        <v>2.73</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>14/08/2023 17:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.63</v>
+        <v>3.01</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>14/08/2023 17:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.71</v>
+        <v>3.08</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-cape-town-city/OIs5fKoA/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-stellenbosch-fc/pSr1e0W3/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.83</v>
+        <v>3.28</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.23</v>
+        <v>2.79</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.23</v>
+        <v>2.6</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.01</v>
+        <v>2.67</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.17</v>
+        <v>2.82</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-spurs/MoPk28ql/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.01</v>
+        <v>3.23</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.42</v>
+        <v>5.01</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>5.17</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-spurs/MoPk28ql/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.96</v>
+        <v>2.24</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.28</v>
+        <v>2.16</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.6</v>
+        <v>3.01</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.67</v>
+        <v>3.42</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.52</v>
+        <v>2.27</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5.17</v>
+        <v>2.3</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.52</v>
+        <v>2.93</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.96</v>
+        <v>3.58</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.75</v>
+        <v>3.74</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
         </is>
       </c>
     </row>
@@ -6277,30 +6277,30 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.58</v>
+        <v>4.52</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.42</v>
+        <v>5.17</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,15 +6308,15 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2.83</v>
+        <v>3.52</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,15 +6324,15 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.17</v>
+        <v>1.96</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.61</v>
+        <v>1.75</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.27</v>
+        <v>2.58</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.58</v>
+        <v>3.17</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
         </is>
       </c>
     </row>
@@ -6802,6 +6802,374 @@
       <c r="V69" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-royal-am/MRrzNLrS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45226.8125</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>26/10/2023 12:31</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>27/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>26/10/2023 12:31</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>27/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>26/10/2023 12:31</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>27/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-polokwane-city/E5eT3txj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>27/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>27/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>27/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-kaizer-chiefs/IZoJQ3q3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45227.73958333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Chippa Utd.</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:44</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-amazulu/vqmFRqUd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45228.60416666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Cape Town City</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>29/10/2023 07:59</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:24</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>29/10/2023 07:59</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:24</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>29/10/2023 07:59</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:24</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-cape-town-city/zBtOPNb9/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Cape Town City</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.77</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>3.03</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>2.81</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.96</v>
+        <v>2.86</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>7.82</v>
+        <v>2.9</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-kaizer-chiefs/GCKwva1T/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-city/ro7WuLWG/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.03</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.81</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.86</v>
+        <v>4.96</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.9</v>
+        <v>7.82</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-city/ro7WuLWG/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-kaizer-chiefs/GCKwva1T/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.28</v>
+        <v>3.23</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.67</v>
+        <v>3.1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.58</v>
+        <v>2.81</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.23</v>
+        <v>2.68</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.7</v>
+        <v>3.29</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-kaizer-chiefs/6LJK7ULQ/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.68</v>
+        <v>3.28</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.81</v>
+        <v>2.67</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.29</v>
+        <v>2.82</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-kaizer-chiefs/6LJK7ULQ/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,98 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-cape-town-city/zBtOPNb9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45231.77083333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Cape Town Spurs</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>01/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>01/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>01/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>01/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>01/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>01/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-orlando-pirates/ngpe5dHP/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.23</v>
+        <v>2.16</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Kaizer Chiefs</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
       <c r="J38" t="n">
-        <v>2.81</v>
+        <v>2.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.68</v>
+        <v>3.23</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.81</v>
+        <v>3.1</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.29</v>
+        <v>2.7</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-kaizer-chiefs/6LJK7ULQ/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.83</v>
+        <v>3.28</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.23</v>
+        <v>2.79</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.23</v>
+        <v>2.6</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.01</v>
+        <v>2.67</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>5.17</v>
+        <v>2.82</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-spurs/MoPk28ql/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.96</v>
+        <v>1.76</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.28</v>
+        <v>1.83</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.79</v>
+        <v>3.23</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.6</v>
+        <v>3.23</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.67</v>
+        <v>5.01</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.82</v>
+        <v>5.17</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-spurs/MoPk28ql/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>2</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Royal AM</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
       <c r="J41" t="n">
-        <v>2.24</v>
+        <v>2.81</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.16</v>
+        <v>2.68</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.01</v>
+        <v>2.73</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.42</v>
+        <v>2.81</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>3.29</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-kaizer-chiefs/6LJK7ULQ/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.27</v>
+        <v>4.52</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.3</v>
+        <v>5.17</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.99</v>
+        <v>3.07</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.93</v>
+        <v>3.52</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.58</v>
+        <v>1.96</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.74</v>
+        <v>1.75</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
         </is>
       </c>
     </row>
@@ -6277,30 +6277,30 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Supersport Utd</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>4.52</v>
+        <v>2.58</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5.17</v>
+        <v>2.42</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,15 +6308,15 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.07</v>
+        <v>2.85</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.52</v>
+        <v>2.83</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,15 +6324,15 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.96</v>
+        <v>3.17</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.75</v>
+        <v>3.61</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Polokwane</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.58</v>
+        <v>2.27</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.17</v>
+        <v>3.58</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,374 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-orlando-pirates/ngpe5dHP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45237.77083333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Cape Town City</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Chippa Utd.</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-city-chippa-utd/S8L2Iuiq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45237.77083333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Sekhukhune</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:00</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:00</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:00</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-sekhukhune/6aK6Ha6k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45237.77083333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Royal AM</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-golden-arrows/EPJAGJLe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45237.77083333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-richards-bay/hGIEFwy2/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.61</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:25</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.1</v>
+        <v>2.51</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:06</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:25</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.51</v>
+        <v>3.1</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:06</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,282 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-richards-bay/hGIEFwy2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45238.77083333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Cape Town Spurs</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>01/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:20</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>01/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>01/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-cape-town-spurs/8O01wsT8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45238.77083333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Supersport Utd</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-supersport-utd/2o05x1rF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45238.77083333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Swallows</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-ts-galaxy/txa9yLcL/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:25</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.51</v>
+        <v>3.1</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:06</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.61</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:25</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.1</v>
+        <v>2.51</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:06</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.16</v>
+        <v>3.23</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.01</v>
+        <v>2.75</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.23</v>
+        <v>3.28</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.1</v>
+        <v>2.67</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.96</v>
+        <v>2.24</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.28</v>
+        <v>2.16</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.6</v>
+        <v>3.01</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.67</v>
+        <v>3.42</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,98 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-ts-galaxy/txa9yLcL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45240.77083333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Cape Town City</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Royal AM</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>08/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>08/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>08/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-city-royal-am/bDgEzuDR/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.27</v>
+        <v>2.68</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.04</v>
+        <v>2.95</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:25</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.58</v>
+        <v>3.24</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.61</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:25</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.1</v>
+        <v>2.51</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:06</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Sekhukhune</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.96</v>
+        <v>3.04</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.51</v>
+        <v>2.46</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:06</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.23</v>
+        <v>2.16</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.28</v>
+        <v>3.23</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.67</v>
+        <v>3.1</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.24</v>
+        <v>2.96</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.16</v>
+        <v>3.28</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>2.79</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.01</v>
+        <v>2.6</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.42</v>
+        <v>2.67</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,190 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-city-royal-am/bDgEzuDR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45241.60416666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:48</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:48</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:48</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-orlando-pirates/0MutWbLr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45241.60416666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Swallows</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:48</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:48</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:48</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-swallows-fc/fqupVIzk/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.52</v>
+        <v>2.27</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5.17</v>
+        <v>2.3</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.52</v>
+        <v>2.93</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.96</v>
+        <v>3.58</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.75</v>
+        <v>3.74</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.27</v>
+        <v>4.52</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.3</v>
+        <v>5.17</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.99</v>
+        <v>3.07</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.93</v>
+        <v>3.52</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.58</v>
+        <v>1.96</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.74</v>
+        <v>1.75</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,98 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-swallows-fc/fqupVIzk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45241.79166666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Chippa Utd.</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:50</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:50</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:50</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-stellenbosch-fc/hUcmUxje/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.03</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.81</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.86</v>
+        <v>4.96</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.9</v>
+        <v>7.82</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-city/ro7WuLWG/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-kaizer-chiefs/GCKwva1T/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Cape Town City</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.77</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>3.03</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>2.81</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.96</v>
+        <v>2.86</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>7.82</v>
+        <v>2.9</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-kaizer-chiefs/GCKwva1T/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-city/ro7WuLWG/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.61</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.68</v>
+        <v>3.27</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.95</v>
+        <v>3.04</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:25</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.24</v>
+        <v>2.58</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:25</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.51</v>
+        <v>3.1</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:06</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.27</v>
+        <v>2.9</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.46</v>
+        <v>2.51</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:06</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.16</v>
+        <v>3.23</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.01</v>
+        <v>2.75</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.23</v>
+        <v>3.28</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.1</v>
+        <v>2.67</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.96</v>
+        <v>2.24</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.28</v>
+        <v>2.16</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.6</v>
+        <v>3.01</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.67</v>
+        <v>3.42</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
         </is>
       </c>
     </row>
@@ -8274,6 +8274,190 @@
       <c r="V85" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-stellenbosch-fc/hUcmUxje/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45242.60416666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:28</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-amazulu/zgmhTd51/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45242.60416666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Cape Town Spurs</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-cape-town-spurs/EqndSGK7/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Cape Town City</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.77</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>3.03</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>2.81</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.96</v>
+        <v>2.86</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>7.82</v>
+        <v>2.9</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-kaizer-chiefs/GCKwva1T/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-city/ro7WuLWG/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.03</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.81</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.86</v>
+        <v>4.96</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.9</v>
+        <v>7.82</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-city/ro7WuLWG/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-kaizer-chiefs/GCKwva1T/</t>
         </is>
       </c>
     </row>
@@ -8458,6 +8458,98 @@
       <c r="V87" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-cape-town-spurs/EqndSGK7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45242.69791666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sekhukhune</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Supersport Utd</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/sekhukhune-supersport-utd/tjvrjKCE/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.5</v>
+        <v>3.63</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>18/09/2023 21:30</t>
+          <t>18/09/2023 21:29</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.45</v>
+        <v>2.99</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/09/2023 19:25</t>
+          <t>19/09/2023 19:20</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.83</v>
+        <v>3.34</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>18/09/2023 21:30</t>
+          <t>18/09/2023 21:29</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19/09/2023 19:25</t>
+          <t>19/09/2023 19:29</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>18/09/2023 21:30</t>
+          <t>18/09/2023 21:29</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.5</v>
+        <v>2.57</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>19/09/2023 19:25</t>
+          <t>19/09/2023 19:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-swallows-fc/nHOwcYO5/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-golden-arrows/viLVbffg/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>19/09/2023 19:24</t>
+          <t>18/09/2023 21:30</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19/09/2023 19:24</t>
+          <t>19/09/2023 19:25</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>18/09/2023 21:29</t>
+          <t>18/09/2023 21:30</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>19/09/2023 19:24</t>
+          <t>19/09/2023 19:25</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>18/09/2023 21:29</t>
+          <t>18/09/2023 21:30</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>19/09/2023 19:20</t>
+          <t>19/09/2023 19:25</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-chippa-utd/hfPZcE9a/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-swallows-fc/nHOwcYO5/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.63</v>
+        <v>2.65</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
+          <t>19/09/2023 19:24</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>19/09/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
           <t>18/09/2023 21:29</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="M48" t="inlineStr">
+      <c r="P48" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>19/09/2023 19:24</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>18/09/2023 21:29</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U48" t="inlineStr">
         <is>
           <t>19/09/2023 19:20</t>
         </is>
       </c>
-      <c r="N48" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>18/09/2023 21:29</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>19/09/2023 19:29</t>
-        </is>
-      </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>18/09/2023 21:29</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>19/09/2023 19:29</t>
-        </is>
-      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-golden-arrows/viLVbffg/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-chippa-utd/hfPZcE9a/</t>
         </is>
       </c>
     </row>
@@ -6277,30 +6277,30 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.58</v>
+        <v>4.52</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.42</v>
+        <v>5.17</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,15 +6308,15 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2.83</v>
+        <v>3.52</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,15 +6324,15 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.17</v>
+        <v>1.96</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.61</v>
+        <v>1.75</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Supersport Utd</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>4.52</v>
+        <v>2.58</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5.17</v>
+        <v>2.42</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.07</v>
+        <v>2.85</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.52</v>
+        <v>2.83</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,15 +6416,15 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.96</v>
+        <v>3.17</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.75</v>
+        <v>3.61</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.79</v>
+        <v>2.65</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.17</v>
+        <v>2.76</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:48</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
         <v>2.84</v>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S83" t="inlineStr">
         <is>
           <t>11/11/2023 07:48</t>
         </is>
       </c>
-      <c r="P83" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q83" t="inlineStr">
+      <c r="T83" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U83" t="inlineStr">
         <is>
           <t>11/11/2023 14:21</t>
         </is>
       </c>
-      <c r="R83" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>11/11/2023 07:48</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>11/11/2023 14:21</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-orlando-pirates/0MutWbLr/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-swallows-fc/fqupVIzk/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Orlando Pirates</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.76</v>
+        <v>3.17</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.04</v>
+        <v>2.64</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-swallows-fc/fqupVIzk/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-orlando-pirates/0MutWbLr/</t>
         </is>
       </c>
     </row>
@@ -8550,6 +8550,558 @@
       <c r="V88" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/sekhukhune-supersport-utd/tjvrjKCE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45255.60416666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:28</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-stellenbosch-fc/OETnkvSK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45255.60416666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:25</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:25</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:25</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-orlando-pirates/xIXjlbsR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45255.69791666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Cape Town Spurs</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Royal AM</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:16</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:40</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:16</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:40</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:16</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:40</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-royal-am/fcKIqIkr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45256.60416666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Swallows</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-kaizer-chiefs/hjZNtGZ0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45256.60416666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/ts-galaxy-polokwane-city/nDYRuzk7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45256.69791666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Cape Town City</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:40</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:38</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:40</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-cape-town-city/0GxWvf4D/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.27</v>
+        <v>2.58</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.58</v>
+        <v>3.17</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4.52</v>
+        <v>2.27</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5.17</v>
+        <v>2.3</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.52</v>
+        <v>2.93</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.96</v>
+        <v>3.58</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.75</v>
+        <v>3.74</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.58</v>
+        <v>4.52</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.42</v>
+        <v>5.17</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.83</v>
+        <v>3.52</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,15 +6416,15 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.17</v>
+        <v>1.96</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.61</v>
+        <v>1.75</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.71</v>
+        <v>2.03</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/11/2023 18:28</t>
+          <t>07/11/2023 18:22</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/11/2023 18:28</t>
+          <t>07/11/2023 18:22</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.54</v>
+        <v>4.1</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.37</v>
+        <v>4.37</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/11/2023 18:28</t>
+          <t>07/11/2023 18:21</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-city-chippa-utd/S8L2Iuiq/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-richards-bay/hGIEFwy2/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,63 +7389,63 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.62</v>
+        <v>3.64</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>06/11/2023 13:00</t>
+          <t>06/11/2023 15:19</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.66</v>
+        <v>3.25</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/11/2023 18:22</t>
+          <t>07/11/2023 18:26</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.8</v>
+        <v>3.19</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>06/11/2023 13:00</t>
+          <t>06/11/2023 15:19</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.55</v>
+        <v>3.07</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/11/2023 18:22</t>
+          <t>07/11/2023 18:26</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>5.04</v>
+        <v>2.19</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>06/11/2023 13:00</t>
+          <t>06/11/2023 15:19</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>6.06</v>
+        <v>2.43</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/11/2023 18:22</t>
+          <t>07/11/2023 18:26</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-sekhukhune/6aK6Ha6k/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-golden-arrows/EPJAGJLe/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Cape Town City</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Chippa Utd.</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Golden Arrows</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
       <c r="J77" t="n">
-        <v>3.64</v>
+        <v>1.71</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,48 +7496,48 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.25</v>
+        <v>1.83</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/11/2023 18:26</t>
+          <t>07/11/2023 18:28</t>
         </is>
       </c>
       <c r="N77" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
         <v>3.19</v>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>07/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="S77" t="inlineStr">
         <is>
           <t>06/11/2023 15:19</t>
         </is>
       </c>
-      <c r="P77" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>07/11/2023 18:26</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>06/11/2023 15:19</t>
-        </is>
-      </c>
       <c r="T77" t="n">
-        <v>2.43</v>
+        <v>5.37</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/11/2023 18:26</t>
+          <t>07/11/2023 18:28</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-golden-arrows/EPJAGJLe/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-city-chippa-utd/S8L2Iuiq/</t>
         </is>
       </c>
     </row>
@@ -7565,30 +7565,30 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Orlando Pirates</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>06/11/2023 15:19</t>
+          <t>06/11/2023 13:00</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.99</v>
+        <v>1.66</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,15 +7596,15 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.24</v>
+        <v>3.8</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>06/11/2023 15:19</t>
+          <t>06/11/2023 13:00</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.17</v>
+        <v>3.55</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,24 +7612,24 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.1</v>
+        <v>5.04</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>06/11/2023 15:19</t>
+          <t>06/11/2023 13:00</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.37</v>
+        <v>6.06</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/11/2023 18:21</t>
+          <t>07/11/2023 18:22</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-richards-bay/hGIEFwy2/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-sekhukhune/6aK6Ha6k/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Orlando Pirates</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.76</v>
+        <v>3.17</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.04</v>
+        <v>2.64</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-swallows-fc/fqupVIzk/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-orlando-pirates/0MutWbLr/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.79</v>
+        <v>2.65</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.17</v>
+        <v>2.76</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,40 +8148,40 @@
         </is>
       </c>
       <c r="N84" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:48</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
         <v>2.84</v>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S84" t="inlineStr">
         <is>
           <t>11/11/2023 07:48</t>
         </is>
       </c>
-      <c r="P84" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q84" t="inlineStr">
+      <c r="T84" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U84" t="inlineStr">
         <is>
           <t>11/11/2023 14:21</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>11/11/2023 07:48</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>11/11/2023 14:21</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-orlando-pirates/0MutWbLr/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-swallows-fc/fqupVIzk/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Kaizer Chiefs</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.54</v>
+        <v>2.84</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.91</v>
+        <v>2.75</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.16</v>
+        <v>2.96</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.9</v>
+        <v>3.21</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-kaizer-chiefs/hjZNtGZ0/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/ts-galaxy-polokwane-city/nDYRuzk7/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.75</v>
+        <v>2.91</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.96</v>
+        <v>3.16</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/ts-galaxy-polokwane-city/nDYRuzk7/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-kaizer-chiefs/hjZNtGZ0/</t>
         </is>
       </c>
     </row>
@@ -9102,6 +9102,98 @@
       <c r="V94" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-cape-town-city/0GxWvf4D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45258.77083333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Cape Town Spurs</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>28/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>28/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>28/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-stellenbosch-fc/QuaX20id/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,15 +1033,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1052,52 +1052,52 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>03/08/2023 14:42</t>
+          <t>02/08/2023 21:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.26</v>
+        <v>1.68</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>06/08/2023 14:58</t>
+          <t>06/08/2023 14:53</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.56</v>
+        <v>3.67</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>03/08/2023 14:42</t>
+          <t>02/08/2023 21:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>06/08/2023 14:58</t>
+          <t>06/08/2023 14:53</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.83</v>
+        <v>6.22</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>03/08/2023 14:42</t>
+          <t>02/08/2023 21:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.55</v>
+        <v>6.38</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>06/08/2023 14:58</t>
+          <t>06/08/2023 14:53</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/ts-galaxy-cape-town-spurs/QqcTX5Yu/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-chippa-utd/lOLNCM2U/</t>
         </is>
       </c>
     </row>
@@ -1125,15 +1125,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1144,52 +1144,52 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>02/08/2023 21:12</t>
+          <t>03/08/2023 14:42</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.68</v>
+        <v>2.26</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>06/08/2023 14:53</t>
+          <t>06/08/2023 14:58</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.67</v>
+        <v>3.56</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>02/08/2023 21:12</t>
+          <t>03/08/2023 14:42</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>06/08/2023 14:53</t>
+          <t>06/08/2023 14:58</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.22</v>
+        <v>5.83</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>02/08/2023 21:12</t>
+          <t>03/08/2023 14:42</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>6.38</v>
+        <v>4.55</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>06/08/2023 14:53</t>
+          <t>06/08/2023 14:58</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-chippa-utd/lOLNCM2U/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/ts-galaxy-cape-town-spurs/QqcTX5Yu/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.31</v>
+        <v>2.48</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.67</v>
+        <v>2.03</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>12/11/2023 14:28</t>
+          <t>12/11/2023 14:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.38</v>
+        <v>3.13</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.14</v>
+        <v>4.22</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>12/11/2023 14:28</t>
+          <t>12/11/2023 14:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-amazulu/zgmhTd51/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-cape-town-spurs/EqndSGK7/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.48</v>
+        <v>2.31</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.03</v>
+        <v>2.67</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>12/11/2023 14:21</t>
+          <t>12/11/2023 14:28</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>12/11/2023 14:21</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.13</v>
+        <v>3.38</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.22</v>
+        <v>3.14</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>12/11/2023 14:21</t>
+          <t>12/11/2023 14:28</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-cape-town-spurs/EqndSGK7/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-amazulu/zgmhTd51/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.75</v>
+        <v>2.91</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.96</v>
+        <v>3.16</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/ts-galaxy-polokwane-city/nDYRuzk7/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-kaizer-chiefs/hjZNtGZ0/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Kaizer Chiefs</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.54</v>
+        <v>2.84</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.91</v>
+        <v>2.75</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.16</v>
+        <v>2.96</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.9</v>
+        <v>3.21</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-kaizer-chiefs/hjZNtGZ0/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/ts-galaxy-polokwane-city/nDYRuzk7/</t>
         </is>
       </c>
     </row>
@@ -9194,6 +9194,98 @@
       <c r="V95" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-stellenbosch-fc/QuaX20id/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45259.77083333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Supersport Utd</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>22/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>29/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>22/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>29/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>22/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>29/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-mamelodi-sundowns/EazKsdKf/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>3.15</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.27</v>
+        <v>2.9</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.46</v>
+        <v>2.51</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.61</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.68</v>
+        <v>3.27</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>3.04</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:25</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.24</v>
+        <v>2.58</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:25</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.51</v>
+        <v>3.1</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:06</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Cape Town Spurs</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>TS Galaxy</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
-        <v>2.58</v>
+        <v>1.76</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="L37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>30/08/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>3.23</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>30/08/2023 19:19</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>2.77</v>
-      </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.75</v>
+        <v>3.23</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.1</v>
+        <v>5.01</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.7</v>
+        <v>5.17</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-spurs/MoPk28ql/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.28</v>
+        <v>2.68</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.67</v>
+        <v>2.81</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.82</v>
+        <v>3.29</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-kaizer-chiefs/6LJK7ULQ/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.24</v>
+        <v>2.96</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.16</v>
+        <v>3.28</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>2.79</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.01</v>
+        <v>2.6</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.42</v>
+        <v>2.67</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Royal AM</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Cape Town Spurs</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.76</v>
+        <v>2.24</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.23</v>
+        <v>3</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.23</v>
+        <v>3.01</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.01</v>
+        <v>3.42</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>5.17</v>
+        <v>4</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-spurs/MoPk28ql/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Kaizer Chiefs</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
       <c r="J41" t="n">
-        <v>2.81</v>
+        <v>2.58</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.68</v>
+        <v>3.23</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.81</v>
+        <v>3.1</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.29</v>
+        <v>2.7</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-kaizer-chiefs/6LJK7ULQ/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.63</v>
+        <v>2.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>18/09/2023 21:29</t>
+          <t>18/09/2023 21:30</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.99</v>
+        <v>2.45</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/09/2023 19:20</t>
+          <t>19/09/2023 19:25</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.34</v>
+        <v>2.83</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>18/09/2023 21:29</t>
+          <t>18/09/2023 21:30</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.12</v>
+        <v>2.85</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19/09/2023 19:29</t>
+          <t>19/09/2023 19:25</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>3.15</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>18/09/2023 21:29</t>
+          <t>18/09/2023 21:30</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.57</v>
+        <v>3.5</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>19/09/2023 19:29</t>
+          <t>19/09/2023 19:25</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-golden-arrows/viLVbffg/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-swallows-fc/nHOwcYO5/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>18/09/2023 21:30</t>
+          <t>19/09/2023 19:24</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19/09/2023 19:25</t>
+          <t>19/09/2023 19:24</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>18/09/2023 21:30</t>
+          <t>18/09/2023 21:29</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.85</v>
+        <v>2.68</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>19/09/2023 19:25</t>
+          <t>19/09/2023 19:24</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>18/09/2023 21:30</t>
+          <t>18/09/2023 21:29</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>19/09/2023 19:25</t>
+          <t>19/09/2023 19:20</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-swallows-fc/nHOwcYO5/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-chippa-utd/hfPZcE9a/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,30 +4813,30 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.65</v>
+        <v>3.63</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/09/2023 19:24</t>
+          <t>18/09/2023 21:29</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.65</v>
+        <v>2.99</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19/09/2023 19:24</t>
+          <t>19/09/2023 19:20</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.9</v>
+        <v>3.34</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.68</v>
+        <v>3.12</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>19/09/2023 19:24</t>
+          <t>19/09/2023 19:29</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.4</v>
+        <v>2.57</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>19/09/2023 19:20</t>
+          <t>19/09/2023 19:29</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-chippa-utd/hfPZcE9a/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-golden-arrows/viLVbffg/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.85</v>
+        <v>1.33</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>20/09/2023 18:43</t>
+          <t>25/09/2023 13:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.15</v>
+        <v>1.34</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 19:29</t>
+          <t>27/09/2023 19:21</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.15</v>
+        <v>4.69</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>20/09/2023 18:43</t>
+          <t>25/09/2023 13:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2.89</v>
+        <v>4.68</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 19:29</t>
+          <t>27/09/2023 19:22</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>5.02</v>
+        <v>10.32</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>20/09/2023 18:43</t>
+          <t>25/09/2023 13:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.29</v>
+        <v>10.75</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 19:29</t>
+          <t>27/09/2023 19:22</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-sekhukhune/vBmHAig5/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-stellenbosch-fc/MZxM9B8B/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>25/09/2023 13:12</t>
+          <t>20/09/2023 18:43</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.34</v>
+        <v>2.15</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>27/09/2023 19:21</t>
+          <t>27/09/2023 19:29</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.69</v>
+        <v>3.15</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>25/09/2023 13:12</t>
+          <t>20/09/2023 18:43</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.68</v>
+        <v>2.89</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>27/09/2023 19:22</t>
+          <t>27/09/2023 19:29</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>10.32</v>
+        <v>5.02</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>25/09/2023 13:12</t>
+          <t>20/09/2023 18:43</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>10.75</v>
+        <v>4.29</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>27/09/2023 19:22</t>
+          <t>27/09/2023 19:29</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-stellenbosch-fc/MZxM9B8B/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-sekhukhune/vBmHAig5/</t>
         </is>
       </c>
     </row>
@@ -6185,30 +6185,30 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.58</v>
+        <v>4.52</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.42</v>
+        <v>5.17</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,15 +6216,15 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.83</v>
+        <v>3.52</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,15 +6232,15 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.17</v>
+        <v>1.96</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.61</v>
+        <v>1.75</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.27</v>
+        <v>2.58</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.58</v>
+        <v>3.17</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>4.52</v>
+        <v>2.27</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5.17</v>
+        <v>2.3</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.52</v>
+        <v>2.93</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.96</v>
+        <v>3.58</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.75</v>
+        <v>3.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Cape Town City</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.03</v>
+        <v>1.71</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/11/2023 18:22</t>
+          <t>07/11/2023 18:28</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/11/2023 18:22</t>
+          <t>07/11/2023 18:28</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.1</v>
+        <v>5.54</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.37</v>
+        <v>5.37</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/11/2023 18:21</t>
+          <t>07/11/2023 18:28</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-richards-bay/hGIEFwy2/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-city-chippa-utd/S8L2Iuiq/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Orlando Pirates</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,63 +7389,63 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.64</v>
+        <v>1.62</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>06/11/2023 15:19</t>
+          <t>06/11/2023 13:00</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3.25</v>
+        <v>1.66</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/11/2023 18:26</t>
+          <t>07/11/2023 18:22</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.19</v>
+        <v>3.8</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>06/11/2023 15:19</t>
+          <t>06/11/2023 13:00</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.07</v>
+        <v>3.55</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/11/2023 18:26</t>
+          <t>07/11/2023 18:22</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.19</v>
+        <v>5.04</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>06/11/2023 15:19</t>
+          <t>06/11/2023 13:00</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.43</v>
+        <v>6.06</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/11/2023 18:26</t>
+          <t>07/11/2023 18:22</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-golden-arrows/EPJAGJLe/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-sekhukhune/6aK6Ha6k/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.71</v>
+        <v>3.64</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.83</v>
+        <v>3.25</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/11/2023 18:28</t>
+          <t>07/11/2023 18:26</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.53</v>
+        <v>3.19</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.19</v>
+        <v>3.07</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/11/2023 18:28</t>
+          <t>07/11/2023 18:26</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.54</v>
+        <v>2.19</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>5.37</v>
+        <v>2.43</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/11/2023 18:28</t>
+          <t>07/11/2023 18:26</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-city-chippa-utd/S8L2Iuiq/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-golden-arrows/EPJAGJLe/</t>
         </is>
       </c>
     </row>
@@ -7565,30 +7565,30 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>1</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Sekhukhune</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
       <c r="J78" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>06/11/2023 13:00</t>
+          <t>06/11/2023 15:19</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,15 +7596,15 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.8</v>
+        <v>3.24</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>06/11/2023 13:00</t>
+          <t>06/11/2023 15:19</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.55</v>
+        <v>3.17</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,24 +7612,24 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>5.04</v>
+        <v>4.1</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>06/11/2023 13:00</t>
+          <t>06/11/2023 15:19</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>6.06</v>
+        <v>4.37</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/11/2023 18:22</t>
+          <t>07/11/2023 18:21</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-sekhukhune/6aK6Ha6k/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-richards-bay/hGIEFwy2/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.48</v>
+        <v>2.31</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.03</v>
+        <v>2.67</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>12/11/2023 14:21</t>
+          <t>12/11/2023 14:28</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>12/11/2023 14:21</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.13</v>
+        <v>3.38</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.22</v>
+        <v>3.14</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>12/11/2023 14:21</t>
+          <t>12/11/2023 14:28</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-cape-town-spurs/EqndSGK7/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-amazulu/zgmhTd51/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.31</v>
+        <v>2.48</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.67</v>
+        <v>2.03</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>12/11/2023 14:28</t>
+          <t>12/11/2023 14:21</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:21</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.38</v>
+        <v>3.13</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.14</v>
+        <v>4.22</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>12/11/2023 14:28</t>
+          <t>12/11/2023 14:21</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-amazulu/zgmhTd51/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-cape-town-spurs/EqndSGK7/</t>
         </is>
       </c>
     </row>
@@ -9286,6 +9286,1110 @@
       <c r="V96" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-mamelodi-sundowns/EazKsdKf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45265.77083333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Swallows</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>18/08/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>18/08/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>18/08/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-swallows-fc/zylLnTq1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45266.77083333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sekhukhune</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Chippa Utd.</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>05/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>05/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>05/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/sekhukhune-chippa-utd/YmJMrx5l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45266.77083333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>07/11/2023 15:01</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>07/11/2023 15:01</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>07/11/2023 15:01</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-mamelodi-sundowns/fLdcvND2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45268.77083333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Cape Town City</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>07/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>07/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>07/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-cape-town-city/2LGE3wsE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45269.60416666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-kaizer-chiefs/tCFI2cdK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45269.69791666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Chippa Utd.</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:06</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:06</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:37</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:06</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-golden-arrows/Cf6lcyKs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45269.79166666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:07</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:07</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:50</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:07</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:50</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-ts-galaxy/0Gb1fZ30/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45270.60416666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Royal AM</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:28</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:28</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-richards-bay/v7c5ggJ6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45273.77083333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Sekhukhune</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>11/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>13/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>11/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>13/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>11/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>13/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-sekhukhune/6gaceFlf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45273.77083333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Cape Town Spurs</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>13/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>13/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>13/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-cape-town-spurs/fJegdeZm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45275.60416666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Swallows</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Supersport Utd</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>14/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>15/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>14/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>15/12/2023 14:22</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>14/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>15/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-supersport-utd/AoKM1HBQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45277.60416666666</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:22</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:28</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-orlando-pirates/8juY69hU/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.79</v>
+        <v>2.65</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.17</v>
+        <v>2.76</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:48</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
         <v>2.84</v>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S83" t="inlineStr">
         <is>
           <t>11/11/2023 07:48</t>
         </is>
       </c>
-      <c r="P83" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q83" t="inlineStr">
+      <c r="T83" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U83" t="inlineStr">
         <is>
           <t>11/11/2023 14:21</t>
         </is>
       </c>
-      <c r="R83" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>11/11/2023 07:48</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>11/11/2023 14:21</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-orlando-pirates/0MutWbLr/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-swallows-fc/fqupVIzk/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Orlando Pirates</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.76</v>
+        <v>3.17</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.04</v>
+        <v>2.64</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-swallows-fc/fqupVIzk/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-orlando-pirates/0MutWbLr/</t>
         </is>
       </c>
     </row>
@@ -10390,6 +10390,98 @@
       <c r="V108" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-orlando-pirates/8juY69hU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45282.77083333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Cape Town Spurs</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>22/12/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:01</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:01</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-cape-town-spurs/zZjEiXmJ/</t>
         </is>
       </c>
     </row>

--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.03</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.81</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.86</v>
+        <v>4.96</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.9</v>
+        <v>7.82</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>09/08/2023 14:50</t>
+          <t>09/08/2023 14:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-city/ro7WuLWG/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-kaizer-chiefs/GCKwva1T/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Cape Town City</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.77</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>3.03</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>2.81</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.96</v>
+        <v>2.86</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>7.82</v>
+        <v>2.9</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>09/08/2023 14:59</t>
+          <t>09/08/2023 14:50</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-kaizer-chiefs/GCKwva1T/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-city/ro7WuLWG/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:26</t>
+          <t>09/08/2023 19:25</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.51</v>
+        <v>3.1</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/08/2023 19:06</t>
+          <t>09/08/2023 19:20</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>3.15</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.27</v>
+        <v>2.9</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:26</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.46</v>
+        <v>2.51</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>08/08/2023 13:42</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/08/2023 19:21</t>
+          <t>09/08/2023 19:06</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-sekhukhune/SjlddtHc/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.61</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.68</v>
+        <v>3.27</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.95</v>
+        <v>3.04</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:25</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 13:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.24</v>
+        <v>2.58</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/08/2023 19:20</t>
+          <t>09/08/2023 19:21</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-ts-galaxy/zc1AYxPj/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-stellenbosch-fc/l0khcM1i/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Royal AM</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>3</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Cape Town Spurs</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
       <c r="J37" t="n">
-        <v>1.76</v>
+        <v>2.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.23</v>
+        <v>3</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.23</v>
+        <v>3.01</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.01</v>
+        <v>3.42</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.17</v>
+        <v>4</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:27</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-spurs/MoPk28ql/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Kaizer Chiefs</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
       <c r="J38" t="n">
-        <v>2.81</v>
+        <v>2.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.68</v>
+        <v>3.23</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.81</v>
+        <v>3.1</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>28/08/2023 13:24</t>
+          <t>28/08/2023 13:23</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.29</v>
+        <v>2.7</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/08/2023 19:26</t>
+          <t>30/08/2023 19:19</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-kaizer-chiefs/6LJK7ULQ/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.28</v>
+        <v>2.68</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.67</v>
+        <v>2.81</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.82</v>
+        <v>3.29</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/08/2023 19:29</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-kaizer-chiefs/6LJK7ULQ/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.01</v>
+        <v>3.23</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.42</v>
+        <v>5.01</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>5.17</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>30/08/2023 19:27</t>
+          <t>30/08/2023 19:26</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-royal-am/SOPo3lUs/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/swallows-fc-cape-town-spurs/MoPk28ql/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.23</v>
+        <v>3.28</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.1</v>
+        <v>2.67</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>28/08/2023 13:23</t>
+          <t>28/08/2023 13:24</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>30/08/2023 19:19</t>
+          <t>30/08/2023 19:29</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-ts-galaxy/0xOg1Sbf/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-sekhukhune/djxUp7ED/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>25/09/2023 13:12</t>
+          <t>20/09/2023 18:43</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.34</v>
+        <v>2.15</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/09/2023 19:21</t>
+          <t>27/09/2023 19:29</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.69</v>
+        <v>3.15</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>25/09/2023 13:12</t>
+          <t>20/09/2023 18:43</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.68</v>
+        <v>2.89</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/09/2023 19:22</t>
+          <t>27/09/2023 19:29</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>10.32</v>
+        <v>5.02</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>25/09/2023 13:12</t>
+          <t>20/09/2023 18:43</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>10.75</v>
+        <v>4.29</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/09/2023 19:22</t>
+          <t>27/09/2023 19:29</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-stellenbosch-fc/MZxM9B8B/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-sekhukhune/vBmHAig5/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.85</v>
+        <v>1.33</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>20/09/2023 18:43</t>
+          <t>25/09/2023 13:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.15</v>
+        <v>1.34</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>27/09/2023 19:29</t>
+          <t>27/09/2023 19:21</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.15</v>
+        <v>4.69</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>20/09/2023 18:43</t>
+          <t>25/09/2023 13:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>2.89</v>
+        <v>4.68</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>27/09/2023 19:29</t>
+          <t>27/09/2023 19:22</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.02</v>
+        <v>10.32</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>20/09/2023 18:43</t>
+          <t>25/09/2023 13:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.29</v>
+        <v>10.75</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>27/09/2023 19:29</t>
+          <t>27/09/2023 19:22</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-sekhukhune/vBmHAig5/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-stellenbosch-fc/MZxM9B8B/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.52</v>
+        <v>2.27</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5.17</v>
+        <v>2.3</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.52</v>
+        <v>2.93</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.96</v>
+        <v>3.58</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:13</t>
+          <t>03/10/2023 01:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.75</v>
+        <v>3.74</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>04/10/2023 19:21</t>
+          <t>04/10/2023 19:22</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
         </is>
       </c>
     </row>
@@ -6277,30 +6277,30 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.58</v>
+        <v>4.52</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.42</v>
+        <v>5.17</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,15 +6308,15 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2.83</v>
+        <v>3.52</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,15 +6324,15 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.17</v>
+        <v>1.96</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>03/10/2023 01:12</t>
+          <t>30/09/2023 14:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.61</v>
+        <v>1.75</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-supersport-utd/fHreMlhH/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.27</v>
+        <v>2.58</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.58</v>
+        <v>3.17</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>04/10/2023 19:22</t>
+          <t>04/10/2023 19:21</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-ts-galaxy/niumOAN4/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-polokwane-city/4SkrPj8b/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.71</v>
+        <v>3.64</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.83</v>
+        <v>3.25</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/11/2023 18:28</t>
+          <t>07/11/2023 18:26</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.53</v>
+        <v>3.19</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.19</v>
+        <v>3.07</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/11/2023 18:28</t>
+          <t>07/11/2023 18:26</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.54</v>
+        <v>2.19</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.37</v>
+        <v>2.43</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/11/2023 18:28</t>
+          <t>07/11/2023 18:26</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-city-chippa-utd/S8L2Iuiq/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-golden-arrows/EPJAGJLe/</t>
         </is>
       </c>
     </row>
@@ -7381,30 +7381,30 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Sekhukhune</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>06/11/2023 13:00</t>
+          <t>06/11/2023 15:19</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,15 +7412,15 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.8</v>
+        <v>3.24</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>06/11/2023 13:00</t>
+          <t>06/11/2023 15:19</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.55</v>
+        <v>3.17</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,24 +7428,24 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>5.04</v>
+        <v>4.1</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>06/11/2023 13:00</t>
+          <t>06/11/2023 15:19</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>6.06</v>
+        <v>4.37</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/11/2023 18:22</t>
+          <t>07/11/2023 18:21</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-sekhukhune/6aK6Ha6k/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-richards-bay/hGIEFwy2/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Orlando Pirates</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3.64</v>
+        <v>1.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>06/11/2023 15:19</t>
+          <t>06/11/2023 13:00</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.25</v>
+        <v>1.66</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/11/2023 18:26</t>
+          <t>07/11/2023 18:22</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.19</v>
+        <v>3.8</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>06/11/2023 15:19</t>
+          <t>06/11/2023 13:00</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.07</v>
+        <v>3.55</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/11/2023 18:26</t>
+          <t>07/11/2023 18:22</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.19</v>
+        <v>5.04</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>06/11/2023 15:19</t>
+          <t>06/11/2023 13:00</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.43</v>
+        <v>6.06</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/11/2023 18:26</t>
+          <t>07/11/2023 18:22</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-golden-arrows/EPJAGJLe/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-sekhukhune/6aK6Ha6k/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Cape Town City</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.03</v>
+        <v>1.71</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>07/11/2023 18:22</t>
+          <t>07/11/2023 18:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/11/2023 18:22</t>
+          <t>07/11/2023 18:28</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.1</v>
+        <v>5.54</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.37</v>
+        <v>5.37</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/11/2023 18:21</t>
+          <t>07/11/2023 18:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/stellenbosch-fc-richards-bay/hGIEFwy2/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-city-chippa-utd/S8L2Iuiq/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Orlando Pirates</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.76</v>
+        <v>3.17</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.04</v>
+        <v>2.64</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-swallows-fc/fqupVIzk/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-orlando-pirates/0MutWbLr/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.79</v>
+        <v>2.65</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.17</v>
+        <v>2.76</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,40 +8148,40 @@
         </is>
       </c>
       <c r="N84" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:48</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
         <v>2.84</v>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S84" t="inlineStr">
         <is>
           <t>11/11/2023 07:48</t>
         </is>
       </c>
-      <c r="P84" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q84" t="inlineStr">
+      <c r="T84" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U84" t="inlineStr">
         <is>
           <t>11/11/2023 14:21</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>11/11/2023 07:48</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>11/11/2023 14:21</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-orlando-pirates/0MutWbLr/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/polokwane-city-swallows-fc/fqupVIzk/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Orlando Pirates</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.27</v>
+        <v>5.24</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.85</v>
+        <v>4.98</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>25/11/2023 14:28</t>
+          <t>25/11/2023 14:25</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2.82</v>
+        <v>3.07</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>25/11/2023 14:21</t>
+          <t>25/11/2023 14:25</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.62</v>
+        <v>1.79</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.95</v>
+        <v>1.93</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>25/11/2023 14:28</t>
+          <t>25/11/2023 14:25</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-stellenbosch-fc/OETnkvSK/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-orlando-pirates/xIXjlbsR/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>AmaZulu</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>5.24</v>
+        <v>2.27</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.98</v>
+        <v>2.85</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>25/11/2023 14:25</t>
+          <t>25/11/2023 14:28</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.07</v>
+        <v>2.82</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>25/11/2023 14:25</t>
+          <t>25/11/2023 14:21</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.79</v>
+        <v>3.62</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.93</v>
+        <v>2.95</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>25/11/2023 14:25</t>
+          <t>25/11/2023 14:28</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-orlando-pirates/xIXjlbsR/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-stellenbosch-fc/OETnkvSK/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,1202 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-cape-town-spurs/zZjEiXmJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45283.60416666666</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:24</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:15</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-richards-bay/MTeYdSPb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45283.60416666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Golden Arrows</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>20/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>20/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:20</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>20/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-ts-galaxy/0E7Pblen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45283.60416666666</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Chippa Utd.</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:19</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:27</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-polokwane-city/nB3LaUut/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45283.60416666666</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Royal AM</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Swallows</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>20/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:27</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/royal-am-swallows-fc/rwcUc8Ah/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45283.69791666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Supersport Utd</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:40</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:40</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:40</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-orlando-pirates/G4Aydnu5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45284.60416666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Cape Town City</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>24/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>24/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>24/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-city-mamelodi-sundowns/fe9ue6fB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45289.69791666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Royal AM</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>29/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>29/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>29/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/amazulu-royal-am/jN2lgpPN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45289.79166666666</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:46</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>29/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/orlando-pirates-stellenbosch-fc/pp2hh4vU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45290.60416666666</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>TS Galaxy</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Chippa Utd.</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:20</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:20</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:20</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/ts-galaxy-chippa-utd/OAX2C7Po/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45290.60416666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Richards Bay</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Supersport Utd</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:17</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:17</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:17</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/richards-bay-supersport-utd/nglKmOno/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45290.69791666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:36</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:36</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:36</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-polokwane-city/dOVAAofb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45290.79166666666</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sekhukhune</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/sekhukhune-kaizer-chiefs/8bZE9594/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45291.60416666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Cape Town Spurs</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Cape Town City</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>24/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>31/12/2023 14:23</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>24/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>31/12/2023 14:23</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>24/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>31/12/2023 14:23</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/cape-town-spurs-cape-town-city/21W6BRvh/</t>
         </is>
       </c>
     </row>
